--- a/data/trans_camb/P1403-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1403-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.37478336682088</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5.629822877487473</v>
+        <v>5.629822877487475</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>8.581846367053295</v>
@@ -655,7 +655,7 @@
         <v>3.654756702914799</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>8.73152827672676</v>
+        <v>8.731528276726754</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>6.247471174663522</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1414105988863491</v>
+        <v>-0.05810354250362184</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.067645742080526</v>
+        <v>-4.177903018987621</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.642687050090301</v>
+        <v>1.287419027472</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.15882261254475</v>
+        <v>4.237136942711555</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4878528790219798</v>
+        <v>-0.4711593244419433</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.392661082829316</v>
+        <v>5.101273229407241</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.456966770000988</v>
+        <v>3.358802386285368</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.185208247194802</v>
+        <v>-1.060811072937208</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.51334486403556</v>
+        <v>4.910812977672275</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.885431265126503</v>
+        <v>8.170801881275617</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.836968918011882</v>
+        <v>3.515458354848553</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.398043862653751</v>
+        <v>9.366711943505612</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.72764261536858</v>
+        <v>12.75025434685661</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.729794825581202</v>
+        <v>7.61885120683647</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.34635903720493</v>
+        <v>12.12750341978384</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.14933315404928</v>
+        <v>9.506630417094829</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.153668047402546</v>
+        <v>4.372873952047858</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.692876076403092</v>
+        <v>10.02275274067435</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.02395271239793111</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3598065980879</v>
+        <v>0.3598065980879002</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5380420565420614</v>
@@ -760,7 +760,7 @@
         <v>0.2291363336620019</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5474264196573274</v>
+        <v>0.5474264196573271</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3954633687801545</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.008838145516948233</v>
+        <v>-0.01542523546370586</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2325301063660667</v>
+        <v>-0.2405790036850441</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.08662054103825287</v>
+        <v>0.06824330849935219</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2315251062491378</v>
+        <v>0.2331717084791512</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03049190776326376</v>
+        <v>-0.02913519841041253</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2905344988533062</v>
+        <v>0.2810560118822617</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2028975348443663</v>
+        <v>0.1950514759688441</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06755000267295722</v>
+        <v>-0.06313935288428481</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2662669957541</v>
+        <v>0.2871803434064487</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5823834724699859</v>
+        <v>0.5913614292003739</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2816117414970212</v>
+        <v>0.249276645404352</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6730687506837953</v>
+        <v>0.6935245008153791</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8966491005205678</v>
+        <v>0.891858963755797</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5557468497573518</v>
+        <v>0.5312941458859978</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9397458760820359</v>
+        <v>0.8979653089396581</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6234522047210789</v>
+        <v>0.6486470673350218</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2842306605732878</v>
+        <v>0.3059190733229011</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.686344139069975</v>
+        <v>0.7095341133053107</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-1.349768911607852</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.840985485599588</v>
+        <v>0.8409854855995852</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.545844064974849</v>
@@ -878,7 +878,7 @@
         <v>1.022882351665042</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.077922640053857</v>
+        <v>3.077922640053854</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8795454965444025</v>
+        <v>-0.7243337882361052</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2037179704028787</v>
+        <v>-0.04740181515637326</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.934995740726237</v>
+        <v>1.9378850276778</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.27375125924261</v>
+        <v>-3.005973488709708</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.940789535959922</v>
+        <v>-5.066269664408981</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.383459065773912</v>
+        <v>-2.333739620587862</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.7484771010620759</v>
+        <v>-0.8326321358358966</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.353045106839432</v>
+        <v>-1.443480897726493</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9004320305612407</v>
+        <v>1.050125871802753</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.386805055166706</v>
+        <v>5.789819161633212</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.628155904330871</v>
+        <v>6.636120004715328</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.297374390832637</v>
+        <v>8.378145016742556</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.725686130203101</v>
+        <v>4.108326158354617</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.339570332714432</v>
+        <v>2.065361900841286</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.07170074301817</v>
+        <v>3.992091985151766</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.841744809868498</v>
+        <v>3.91392813137338</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.521981637316991</v>
+        <v>3.377452419049724</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.295504575147504</v>
+        <v>5.259531177588702</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.07402766714706915</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0461235942449754</v>
+        <v>0.04612359424497525</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1019249048616423</v>
@@ -983,7 +983,7 @@
         <v>0.06744353375630326</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2029421850282734</v>
+        <v>0.2029421850282733</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.06126231045818895</v>
+        <v>-0.05251882742546197</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.01532630892020554</v>
+        <v>0.003182813672929551</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.14752526279534</v>
+        <v>0.1290761803143905</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1582059527691682</v>
+        <v>-0.1570340451272682</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2451134640036023</v>
+        <v>-0.2536517914013242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1204859316213057</v>
+        <v>-0.1137822831335656</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04714090930913938</v>
+        <v>-0.04932282628159097</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08003969319812533</v>
+        <v>-0.0875326285347089</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.05409336163168543</v>
+        <v>0.06573003251268056</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5138446770768047</v>
+        <v>0.5507323403710734</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6200407541073512</v>
+        <v>0.6398040748378309</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8115320095247801</v>
+        <v>0.786467631377511</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2287537375307626</v>
+        <v>0.2546656197739029</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1432274076695342</v>
+        <v>0.1196741396486508</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.255611526586261</v>
+        <v>0.2494985178680869</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2714559575006208</v>
+        <v>0.2838078344974967</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.251801990081057</v>
+        <v>0.2390830741068058</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3813325297275879</v>
+        <v>0.375710873076299</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.5235103376422745</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.5281772543343666</v>
+        <v>-0.5281772543343694</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.089023775472264</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.769925254497602</v>
+        <v>-1.727243740949607</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.262238115775095</v>
+        <v>-2.193616469118607</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.064628266952855</v>
+        <v>2.768484534132116</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.854355048093669</v>
+        <v>-4.253833266418283</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.30438102597088</v>
+        <v>-3.50367161278071</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.03828326329791</v>
+        <v>-4.143059803499177</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.932215834321978</v>
+        <v>-1.707955543044827</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.75306541600223</v>
+        <v>-1.510151878054199</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6904405228555172</v>
+        <v>0.7396893086923848</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.942581539609691</v>
+        <v>5.966159996419904</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.005657485080701</v>
+        <v>5.166137409591189</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.74466255654826</v>
+        <v>10.87112538828366</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.272347753347061</v>
+        <v>3.672595814546078</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.759814048860539</v>
+        <v>4.593383748790213</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.167032165489001</v>
+        <v>3.125796370873727</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.829865482940974</v>
+        <v>4.027113147550507</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.605066483364076</v>
+        <v>4.013943606740304</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.846338485108216</v>
+        <v>5.7312155307322</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.03012057717774077</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.03038909188375274</v>
+        <v>-0.0303890918837529</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.07234971308366815</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1206568432210119</v>
+        <v>-0.1250673796438813</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1618383103727601</v>
+        <v>-0.1506792096233104</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1952407591313746</v>
+        <v>0.188755922698884</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.200941692726357</v>
+        <v>-0.2159412898386069</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1722024182444366</v>
+        <v>-0.1807097181287744</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2036773193263331</v>
+        <v>-0.21482446482487</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1140136782763221</v>
+        <v>-0.1069002051166719</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1067584141766294</v>
+        <v>-0.09606362210506071</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.04260201353924224</v>
+        <v>0.04356543602883679</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.531829715054901</v>
+        <v>0.5314203554768454</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4579598244392452</v>
+        <v>0.4615692339742965</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9941135538795494</v>
+        <v>0.9904929867059991</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2728067914411309</v>
+        <v>0.2369295425665147</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3120728076310669</v>
+        <v>0.3022679265703922</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2116327025275964</v>
+        <v>0.2001768805809389</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2811097579543671</v>
+        <v>0.2879422119756895</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2640586849200327</v>
+        <v>0.292208912454937</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4347476252738594</v>
+        <v>0.4210276332523443</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>2.088687199295794</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6.926644342394408</v>
+        <v>6.926644342394406</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.955852414091519</v>
+        <v>3.140472133070694</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1060171601228483</v>
+        <v>-0.08752203674817813</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.532853250218047</v>
+        <v>3.390522091573424</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.772873230263489</v>
+        <v>3.69611769242254</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.094222574193559</v>
+        <v>-2.10655527346801</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.116846793186749</v>
+        <v>4.085000741856429</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.39112141725427</v>
+        <v>4.307461456909525</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.1174421361049376</v>
+        <v>-0.3387253567949767</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.600215490045832</v>
+        <v>4.881543390548014</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.572752280655594</v>
+        <v>9.821677344860021</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.075402464352595</v>
+        <v>6.100770336811253</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.744354189793826</v>
+        <v>9.497955070561886</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.06100886805453</v>
+        <v>10.73720952852262</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.754176154547551</v>
+        <v>4.398692628018162</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.31311224939413</v>
+        <v>10.5355031303071</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.260979648914633</v>
+        <v>9.302367702304865</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.296333280797528</v>
+        <v>4.170671265254534</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.039265675447139</v>
+        <v>9.171575518974121</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1457685484082785</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4834074204465207</v>
+        <v>0.4834074204465206</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2185868293693649</v>
+        <v>0.2221344719149071</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.01130773065396271</v>
+        <v>-0.007839034903791602</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2455887073257943</v>
+        <v>0.2347856727058854</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2224796226469967</v>
+        <v>0.2047024744375869</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1208930271697467</v>
+        <v>-0.1193389407118572</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2257784861622515</v>
+        <v>0.2267463598460951</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2863144389098523</v>
+        <v>0.2817604517696325</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01369541753956371</v>
+        <v>-0.02179834029233043</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3014629824715169</v>
+        <v>0.3143416753194135</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8679781095789181</v>
+        <v>0.8887218450067016</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5482612446130346</v>
+        <v>0.5529004351656799</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8623707348432447</v>
+        <v>0.8953783871233362</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7637479041965065</v>
+        <v>0.7326791518291401</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3277967083976864</v>
+        <v>0.3017312900255343</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.734914486900708</v>
+        <v>0.740126053083176</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6897453544993257</v>
+        <v>0.6943582503125343</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3228095202628593</v>
+        <v>0.3114119663953127</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6886424226541036</v>
+        <v>0.6990448157395428</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>2.109172418886396</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.106990185682795</v>
+        <v>6.106990185682792</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.017065068442466</v>
@@ -1511,7 +1511,7 @@
         <v>0.8062077466621825</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.994630808927385</v>
+        <v>3.994630808927382</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.909564523786749</v>
@@ -1520,7 +1520,7 @@
         <v>1.455758152172099</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>5.045724334104659</v>
+        <v>5.045724334104662</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.917843992073079</v>
+        <v>2.016492436322108</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5160517245646238</v>
+        <v>0.5442336286613891</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.221363321373918</v>
+        <v>4.191868117202637</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.081787855133681</v>
+        <v>2.1678759642371</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.135066501181746</v>
+        <v>-1.10161689703012</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.369380903573775</v>
+        <v>2.472250890042214</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.649545814948759</v>
+        <v>2.560351068650223</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.180033380061849</v>
+        <v>0.2177873574330614</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.75964833548788</v>
+        <v>3.830893978854848</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.397228475478099</v>
+        <v>5.641631108770806</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.860698686546864</v>
+        <v>3.789057833651126</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.790738655114207</v>
+        <v>7.762978347091555</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.90307968289854</v>
+        <v>5.904923061597893</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.750475400756361</v>
+        <v>2.614450140260955</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.816515110046691</v>
+        <v>5.761638640367934</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.263147487804256</v>
+        <v>5.261817443445263</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.734541260902571</v>
+        <v>2.732351596216515</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.244818235300804</v>
+        <v>6.324723085015593</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1617618545331121</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.468372357425926</v>
+        <v>0.4683723574259258</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.236984352257858</v>
@@ -1616,7 +1616,7 @@
         <v>0.04756174405262588</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2356608565292644</v>
+        <v>0.2356608565292643</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2602052826489356</v>
@@ -1625,7 +1625,7 @@
         <v>0.09688955359343619</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3358236239704353</v>
+        <v>0.3358236239704355</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1379797521470081</v>
+        <v>0.1431476275807894</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.0351368086344231</v>
+        <v>0.03713904494802373</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3001451864692168</v>
+        <v>0.303325263589886</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1181442816013213</v>
+        <v>0.1191766965270199</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.06558655597495749</v>
+        <v>-0.06460139165992416</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1333595131977372</v>
+        <v>0.1397689236229112</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1681843786684233</v>
+        <v>0.1623405996573943</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.01127840397984589</v>
+        <v>0.01418840057339603</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2398280450808448</v>
+        <v>0.2444756770003871</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4402979759546058</v>
+        <v>0.4694980573324662</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3127048759308074</v>
+        <v>0.3094213002252881</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6410004844983983</v>
+        <v>0.633255486569394</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3698674298215925</v>
+        <v>0.3669530795022897</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1687939658911373</v>
+        <v>0.1649543454891493</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3704812119638797</v>
+        <v>0.3586779096513421</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3709232468500352</v>
+        <v>0.3630978316780908</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1903541015454612</v>
+        <v>0.1882988059506349</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4353560603773602</v>
+        <v>0.4386869422613088</v>
       </c>
     </row>
     <row r="34">
